--- a/examples/04/NH3/Storage_NH3_model_ott.xlsx
+++ b/examples/04/NH3/Storage_NH3_model_ott.xlsx
@@ -636,14 +636,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="D\-MMM\-YY"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -743,20 +742,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Century"/>
@@ -1067,7 +1052,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,7 +1060,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1087,11 +1072,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,7 +1092,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,7 +1132,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1171,7 +1156,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,35 +1164,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1272,12 +1257,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1290,35 +1274,20 @@
             <a:solidFill>
               <a:srgbClr val="9dcbf1"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1327,40 +1296,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.69005828257252</c:v>
+                  <c:v>10.685008527463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.54605827565696</c:v>
+                  <c:v>7.01447590384331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.18328518744658</c:v>
+                  <c:v>7.18328518744656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.71012245141926</c:v>
+                  <c:v>8.25846396142268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.2089793538449</c:v>
+                  <c:v>17.5054070972825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.1229040226421</c:v>
+                  <c:v>31.2798587990964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.3956866611176</c:v>
+                  <c:v>49.3347292077466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.4802315702523</c:v>
+                  <c:v>60.5540136871234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.7491961924039</c:v>
+                  <c:v>55.8073272155876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.0916041360323</c:v>
+                  <c:v>44.1284321962747</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.8733946954751</c:v>
+                  <c:v>27.4373677461802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.7160452786818</c:v>
+                  <c:v>17.2085380332465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,11 +1337,11 @@
         </c:ser>
         <c:gapWidth val="90"/>
         <c:overlap val="59"/>
-        <c:axId val="87001822"/>
-        <c:axId val="1643479"/>
+        <c:axId val="53741473"/>
+        <c:axId val="97323737"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87001822"/>
+        <c:axId val="53741473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1354,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1393,7 +1362,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1407,12 +1376,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1438,15 +1407,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643479"/>
+        <c:crossAx val="97323737"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643479"/>
+        <c:axId val="97323737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1437,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1477,7 +1445,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1491,7 +1459,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1519,9 +1487,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87001822"/>
+        <c:crossAx val="53741473"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1549,12 +1516,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1567,35 +1533,20 @@
             <a:solidFill>
               <a:srgbClr val="c5e0b4"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1604,40 +1555,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.307055525780231</c:v>
+                  <c:v>0.338583196890264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.227621686654623</c:v>
+                  <c:v>0.243909658147793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.227621686654623</c:v>
+                  <c:v>0.227621686654622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.252459805220015</c:v>
+                  <c:v>0.270414668023009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.577000423152447</c:v>
+                  <c:v>0.554705846291988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.05183051809568</c:v>
+                  <c:v>1.02422589388004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56523501682989</c:v>
+                  <c:v>1.56330341617804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.91647859719413</c:v>
+                  <c:v>1.91881658175814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.89093635207609</c:v>
+                  <c:v>1.82735190620785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55559934520668</c:v>
+                  <c:v>1.39832791039593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.10914848380731</c:v>
+                  <c:v>0.898407588283568</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.751506599869503</c:v>
+                  <c:v>0.545298752558669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,11 +1596,11 @@
         </c:ser>
         <c:gapWidth val="90"/>
         <c:overlap val="59"/>
-        <c:axId val="97933867"/>
-        <c:axId val="47374503"/>
+        <c:axId val="90292695"/>
+        <c:axId val="35332270"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97933867"/>
+        <c:axId val="90292695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1613,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1670,7 +1621,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1684,12 +1635,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1715,15 +1666,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47374503"/>
+        <c:crossAx val="35332270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47374503"/>
+        <c:axId val="35332270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1696,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1754,7 +1704,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1768,7 +1718,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1796,9 +1746,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97933867"/>
+        <c:crossAx val="90292695"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1837,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1142640</xdr:colOff>
+      <xdr:colOff>1142280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1847,8 +1796,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6879600" y="1950120"/>
-        <a:ext cx="3868200" cy="2667600"/>
+        <a:off x="6878880" y="1949760"/>
+        <a:ext cx="3867480" cy="2667240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1867,9 +1816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1877,8 +1826,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11082600" y="1941480"/>
-        <a:ext cx="3766320" cy="2684880"/>
+        <a:off x="11081880" y="1941120"/>
+        <a:ext cx="3765240" cy="2684520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1892,33 +1841,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P46"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +1982,7 @@
       </c>
       <c r="L7" s="22" t="n">
         <f aca="false">Calculations!N15</f>
-        <v>355.767566107545</v>
+        <v>336.396907562713</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -2053,7 +2002,7 @@
       </c>
       <c r="L8" s="26" t="n">
         <f aca="false">100*L7/L6</f>
-        <v>2.31913931167527</v>
+        <v>2.19286794799852</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -2244,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="14" t="n">
-        <v>2.18</v>
+        <v>2.9</v>
       </c>
       <c r="D19" s="15"/>
       <c r="F19" s="4" t="s">
@@ -2265,7 +2214,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="15"/>
       <c r="F20" s="8"/>
@@ -2305,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D22" s="15"/>
       <c r="F22" s="32" t="s">
@@ -2326,7 +2275,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D23" s="15"/>
       <c r="F23" s="32" t="s">
@@ -2349,7 +2298,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="30" t="n">
-        <v>11.56</v>
+        <v>11.35</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="32" t="s">
@@ -2372,7 +2321,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="30" t="n">
-        <v>14.74</v>
+        <v>14.73</v>
       </c>
       <c r="D25" s="15"/>
       <c r="F25" s="35" t="s">
@@ -2396,7 +2345,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="30" t="n">
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="D26" s="15"/>
       <c r="J26" s="13"/>
@@ -2412,7 +2361,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="30" t="n">
-        <v>16.28</v>
+        <v>16</v>
       </c>
       <c r="D27" s="15"/>
       <c r="J27" s="23"/>
@@ -2428,7 +2377,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="30" t="n">
-        <v>14.69</v>
+        <v>13.83</v>
       </c>
       <c r="D28" s="15"/>
       <c r="J28" s="37"/>
@@ -2444,7 +2393,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="30" t="n">
-        <v>11.98</v>
+        <v>10.32</v>
       </c>
       <c r="D29" s="15"/>
       <c r="J29" s="37"/>
@@ -2460,7 +2409,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="20" t="n">
-        <v>8.93</v>
+        <v>6.47</v>
       </c>
       <c r="D30" s="15"/>
       <c r="J30" s="37"/>
@@ -2483,141 +2432,7 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-    </row>
-    <row r="38" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-    </row>
+    <row r="38" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <sheetProtection sheet="true" selectLockedCells="true"/>
   <mergeCells count="16">
@@ -2639,15 +2454,15 @@
     <mergeCell ref="K28:L28"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
       <formula1>Parameters!$A$3:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="list">
       <formula1>Parameters!$B$2:$C$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C16" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C16" type="list">
       <formula1>Parameters!$A$8:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2657,7 +2472,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2667,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2677,9 +2492,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="293.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,8 +2505,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2699,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2709,12 +2525,12 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="18.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="40" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="40" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,7 +2736,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2929,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2939,9 +2755,10 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,8 +2794,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2987,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2997,22 +2814,22 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="40" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="40" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="40" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="40" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="40" width="16.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="40" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="40" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="40" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="40" width="16.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="40" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" s="43" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3068,7 +2885,7 @@
       </c>
       <c r="C3" s="44" t="n">
         <f aca="false">Model!C19</f>
-        <v>2.18</v>
+        <v>2.9</v>
       </c>
       <c r="D3" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3092,27 +2909,27 @@
       </c>
       <c r="I3" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C3+273.15))-0.039282*(C3+273.15))-(191.97-8451/(C3+273.15)-31.4335*LN(C3+273.15)+0.0152123*(C3+273.15)))</f>
-        <v>9.65303221353653E-011</v>
+        <v>1.02532591947923E-010</v>
       </c>
       <c r="J3" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C3))-(25.6767*LN(273.15+C3))+(0.035388*(273.15+C3))))</f>
-        <v>192.538662921459</v>
+        <v>184.972595265187</v>
       </c>
       <c r="K3" s="45" t="n">
         <f aca="false">J3*0.08205746*(273.15+C3)</f>
-        <v>4350.00299565933</v>
+        <v>4189.99216809797</v>
       </c>
       <c r="L3" s="45" t="n">
         <f aca="false">($D3/(1+(10^-E3)/$I3))*1/$K3</f>
-        <v>4.65558725430674E-007</v>
+        <v>5.13361097136859E-007</v>
       </c>
       <c r="M3" s="45" t="n">
         <f aca="false">1000*L3/F3*G3*86400</f>
-        <v>0.307055525780231</v>
+        <v>0.338583196890264</v>
       </c>
       <c r="N3" s="45" t="n">
         <f aca="false">M3*B3*H3/1000</f>
-        <v>9.69005828257252</v>
+        <v>10.685008527463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +2941,7 @@
       </c>
       <c r="C4" s="44" t="n">
         <f aca="false">Model!C20</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3148,27 +2965,27 @@
       </c>
       <c r="I4" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C4+273.15))-0.039282*(C4+273.15))-(191.97-8451/(C4+273.15)-31.4335*LN(C4+273.15)+0.0152123*(C4+273.15)))</f>
-        <v>8.02650303591075E-011</v>
+        <v>8.37559248324732E-011</v>
       </c>
       <c r="J4" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C4))-(25.6767*LN(273.15+C4))+(0.035388*(273.15+C4))))</f>
-        <v>217.724227041309</v>
+        <v>211.627043718995</v>
       </c>
       <c r="K4" s="45" t="n">
         <f aca="false">J4*0.08205746*(273.15+C4)</f>
-        <v>4880.06977960988</v>
+        <v>4752.09033073357</v>
       </c>
       <c r="L4" s="45" t="n">
         <f aca="false">($D4/(1+(10^-E4)/$I4))*1/$K4</f>
-        <v>3.45120844349023E-007</v>
+        <v>3.69816727052788E-007</v>
       </c>
       <c r="M4" s="45" t="n">
         <f aca="false">1000*L4/F4*G4*86400</f>
-        <v>0.227621686654623</v>
+        <v>0.243909658147793</v>
       </c>
       <c r="N4" s="45" t="n">
         <f aca="false">M4*B4*H4/1000</f>
-        <v>6.54605827565696</v>
+        <v>7.01447590384331</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,19 +3029,19 @@
       </c>
       <c r="K5" s="45" t="n">
         <f aca="false">J5*0.08205746*(273.15+C5)</f>
-        <v>4880.06977960988</v>
+        <v>4880.06977960989</v>
       </c>
       <c r="L5" s="45" t="n">
         <f aca="false">($D5/(1+(10^-E5)/$I5))*1/$K5</f>
-        <v>3.45120844349023E-007</v>
+        <v>3.45120844349022E-007</v>
       </c>
       <c r="M5" s="45" t="n">
         <f aca="false">1000*L5/F5*G5*86400</f>
-        <v>0.227621686654623</v>
+        <v>0.227621686654622</v>
       </c>
       <c r="N5" s="45" t="n">
         <f aca="false">M5*B5*H5/1000</f>
-        <v>7.18328518744658</v>
+        <v>7.18328518744656</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,7 +3053,7 @@
       </c>
       <c r="C6" s="44" t="n">
         <f aca="false">Model!C22</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D6" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3260,27 +3077,27 @@
       </c>
       <c r="I6" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C6+273.15))-0.039282*(C6+273.15))-(191.97-8451/(C6+273.15)-31.4335*LN(C6+273.15)+0.0152123*(C6+273.15)))</f>
-        <v>8.55530872290323E-011</v>
+        <v>8.92539165076675E-011</v>
       </c>
       <c r="J6" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C6))-(25.6767*LN(273.15+C6))+(0.035388*(273.15+C6))))</f>
-        <v>208.652546386633</v>
+        <v>202.847261933112</v>
       </c>
       <c r="K6" s="45" t="n">
         <f aca="false">J6*0.08205746*(273.15+C6)</f>
-        <v>4689.57829645339</v>
+        <v>4567.42396895179</v>
       </c>
       <c r="L6" s="45" t="n">
         <f aca="false">($D6/(1+(10^-E6)/$I6))*1/$K6</f>
-        <v>3.82780491710902E-007</v>
+        <v>4.10003721192293E-007</v>
       </c>
       <c r="M6" s="45" t="n">
         <f aca="false">1000*L6/F6*G6*86400</f>
-        <v>0.252459805220015</v>
+        <v>0.270414668023009</v>
       </c>
       <c r="N6" s="45" t="n">
         <f aca="false">M6*B6*H6/1000</f>
-        <v>7.71012245141926</v>
+        <v>8.25846396142268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,7 +3109,7 @@
       </c>
       <c r="C7" s="44" t="n">
         <f aca="false">Model!C23</f>
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D7" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3316,27 +3133,27 @@
       </c>
       <c r="I7" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C7+273.15))-0.039282*(C7+273.15))-(191.97-8451/(C7+273.15)-31.4335*LN(C7+273.15)+0.0152123*(C7+273.15)))</f>
-        <v>1.42567072790924E-010</v>
+        <v>1.39130113450962E-010</v>
       </c>
       <c r="J7" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C7))-(25.6767*LN(273.15+C7))+(0.035388*(273.15+C7))))</f>
-        <v>148.707364181824</v>
+        <v>151.122162072427</v>
       </c>
       <c r="K7" s="45" t="n">
         <f aca="false">J7*0.08205746*(273.15+C7)</f>
-        <v>3417.32373208493</v>
+        <v>3469.09604023173</v>
       </c>
       <c r="L7" s="45" t="n">
         <f aca="false">($D7/(1+(10^-E7)/$I7))*1/$K7</f>
-        <v>8.74850178622345E-007</v>
+        <v>8.41047058614009E-007</v>
       </c>
       <c r="M7" s="45" t="n">
         <f aca="false">1000*L7/F7*G7*86400</f>
-        <v>0.577000423152447</v>
+        <v>0.554705846291988</v>
       </c>
       <c r="N7" s="45" t="n">
         <f aca="false">M7*B7*H7/1000</f>
-        <v>18.2089793538449</v>
+        <v>17.5054070972825</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3165,7 @@
       </c>
       <c r="C8" s="44" t="n">
         <f aca="false">Model!C24</f>
-        <v>11.56</v>
+        <v>11.35</v>
       </c>
       <c r="D8" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3372,27 +3189,27 @@
       </c>
       <c r="I8" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C8+273.15))-0.039282*(C8+273.15))-(191.97-8451/(C8+273.15)-31.4335*LN(C8+273.15)+0.0152123*(C8+273.15)))</f>
-        <v>2.06929390999807E-010</v>
+        <v>2.0353692916467E-010</v>
       </c>
       <c r="J8" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C8))-(25.6767*LN(273.15+C8))+(0.035388*(273.15+C8))))</f>
-        <v>116.391055951426</v>
+        <v>117.659179764241</v>
       </c>
       <c r="K8" s="45" t="n">
         <f aca="false">J8*0.08205746*(273.15+C8)</f>
-        <v>2719.19529037494</v>
+        <v>2746.79442286549</v>
       </c>
       <c r="L8" s="45" t="n">
         <f aca="false">($D8/(1+(10^-E8)/$I8))*1/$K8</f>
-        <v>1.59478932720526E-006</v>
+        <v>1.55293509373015E-006</v>
       </c>
       <c r="M8" s="45" t="n">
         <f aca="false">1000*L8/F8*G8*86400</f>
-        <v>1.05183051809568</v>
+        <v>1.02422589388004</v>
       </c>
       <c r="N8" s="45" t="n">
         <f aca="false">M8*B8*H8/1000</f>
-        <v>32.1229040226421</v>
+        <v>31.2798587990964</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,7 +3221,7 @@
       </c>
       <c r="C9" s="44" t="n">
         <f aca="false">Model!C25</f>
-        <v>14.74</v>
+        <v>14.73</v>
       </c>
       <c r="D9" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3428,27 +3245,27 @@
       </c>
       <c r="I9" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C9+273.15))-0.039282*(C9+273.15))-(191.97-8451/(C9+273.15)-31.4335*LN(C9+273.15)+0.0152123*(C9+273.15)))</f>
-        <v>2.65008919246434E-010</v>
+        <v>2.64805097214042E-010</v>
       </c>
       <c r="J9" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C9))-(25.6767*LN(273.15+C9))+(0.035388*(273.15+C9))))</f>
-        <v>99.0030629800542</v>
+        <v>99.0527933717702</v>
       </c>
       <c r="K9" s="45" t="n">
         <f aca="false">J9*0.08205746*(273.15+C9)</f>
-        <v>2338.80105215778</v>
+        <v>2339.89457896218</v>
       </c>
       <c r="L9" s="45" t="n">
         <f aca="false">($D9/(1+(10^-E9)/$I9))*1/$K9</f>
-        <v>2.37321512968421E-006</v>
+        <v>2.37028642962179E-006</v>
       </c>
       <c r="M9" s="45" t="n">
         <f aca="false">1000*L9/F9*G9*86400</f>
-        <v>1.56523501682989</v>
+        <v>1.56330341617804</v>
       </c>
       <c r="N9" s="45" t="n">
         <f aca="false">M9*B9*H9/1000</f>
-        <v>49.3956866611176</v>
+        <v>49.3347292077466</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,7 +3277,7 @@
       </c>
       <c r="C10" s="44" t="n">
         <f aca="false">Model!C26</f>
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="D10" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3484,27 +3301,27 @@
       </c>
       <c r="I10" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C10+273.15))-0.039282*(C10+273.15))-(191.97-8451/(C10+273.15)-31.4335*LN(C10+273.15)+0.0152123*(C10+273.15)))</f>
-        <v>3.00662448662034E-010</v>
+        <v>3.00891221390967E-010</v>
       </c>
       <c r="J10" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C10))-(25.6767*LN(273.15+C10))+(0.035388*(273.15+C10))))</f>
-        <v>91.1814547822208</v>
+        <v>91.1362941495528</v>
       </c>
       <c r="K10" s="45" t="n">
         <f aca="false">J10*0.08205746*(273.15+C10)</f>
-        <v>2166.3726132287</v>
+        <v>2165.37442963502</v>
       </c>
       <c r="L10" s="45" t="n">
         <f aca="false">($D10/(1+(10^-E10)/$I10))*1/$K10</f>
-        <v>2.90577194713462E-006</v>
+        <v>2.90931680798977E-006</v>
       </c>
       <c r="M10" s="45" t="n">
         <f aca="false">1000*L10/F10*G10*86400</f>
-        <v>1.91647859719413</v>
+        <v>1.91881658175814</v>
       </c>
       <c r="N10" s="45" t="n">
         <f aca="false">M10*B10*H10/1000</f>
-        <v>60.4802315702523</v>
+        <v>60.5540136871234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3333,7 @@
       </c>
       <c r="C11" s="44" t="n">
         <f aca="false">Model!C27</f>
-        <v>16.28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3540,27 +3357,27 @@
       </c>
       <c r="I11" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C11+273.15))-0.039282*(C11+273.15))-(191.97-8451/(C11+273.15)-31.4335*LN(C11+273.15)+0.0152123*(C11+273.15)))</f>
-        <v>2.98156362548419E-010</v>
+        <v>2.9186268105793E-010</v>
       </c>
       <c r="J11" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C11))-(25.6767*LN(273.15+C11))+(0.035388*(273.15+C11))))</f>
-        <v>91.6799457514937</v>
+        <v>92.9632192947344</v>
       </c>
       <c r="K11" s="45" t="n">
         <f aca="false">J11*0.08205746*(273.15+C11)</f>
-        <v>2177.38868619421</v>
+        <v>2205.73036133574</v>
       </c>
       <c r="L11" s="45" t="n">
         <f aca="false">($D11/(1+(10^-E11)/$I11))*1/$K11</f>
-        <v>2.86704470048574E-006</v>
+        <v>2.77063772816236E-006</v>
       </c>
       <c r="M11" s="45" t="n">
         <f aca="false">1000*L11/F11*G11*86400</f>
-        <v>1.89093635207609</v>
+        <v>1.82735190620785</v>
       </c>
       <c r="N11" s="45" t="n">
         <f aca="false">M11*B11*H11/1000</f>
-        <v>57.7491961924039</v>
+        <v>55.8073272155876</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3389,7 @@
       </c>
       <c r="C12" s="44" t="n">
         <f aca="false">Model!C28</f>
-        <v>14.69</v>
+        <v>13.83</v>
       </c>
       <c r="D12" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3596,27 +3413,27 @@
       </c>
       <c r="I12" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C12+273.15))-0.039282*(C12+273.15))-(191.97-8451/(C12+273.15)-31.4335*LN(C12+273.15)+0.0152123*(C12+273.15)))</f>
-        <v>2.63991234558356E-010</v>
+        <v>2.47034514620702E-010</v>
       </c>
       <c r="J12" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C12))-(25.6767*LN(273.15+C12))+(0.035388*(273.15+C12))))</f>
-        <v>99.2520058494154</v>
+        <v>103.649954409715</v>
       </c>
       <c r="K12" s="45" t="n">
         <f aca="false">J12*0.08205746*(273.15+C12)</f>
-        <v>2344.27474117357</v>
+        <v>2440.83721550963</v>
       </c>
       <c r="L12" s="45" t="n">
         <f aca="false">($D12/(1+(10^-E12)/$I12))*1/$K12</f>
-        <v>2.35860548868142E-006</v>
+        <v>2.12014995673457E-006</v>
       </c>
       <c r="M12" s="45" t="n">
         <f aca="false">1000*L12/F12*G12*86400</f>
-        <v>1.55559934520668</v>
+        <v>1.39832791039593</v>
       </c>
       <c r="N12" s="45" t="n">
         <f aca="false">M12*B12*H12/1000</f>
-        <v>49.0916041360323</v>
+        <v>44.1284321962747</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3445,7 @@
       </c>
       <c r="C13" s="44" t="n">
         <f aca="false">Model!C29</f>
-        <v>11.98</v>
+        <v>10.32</v>
       </c>
       <c r="D13" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3652,27 +3469,27 @@
       </c>
       <c r="I13" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C13+273.15))-0.039282*(C13+273.15))-(191.97-8451/(C13+273.15)-31.4335*LN(C13+273.15)+0.0152123*(C13+273.15)))</f>
-        <v>2.13869403923427E-010</v>
+        <v>1.87620229846742E-010</v>
       </c>
       <c r="J13" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C13))-(25.6767*LN(273.15+C13))+(0.035388*(273.15+C13))))</f>
-        <v>113.902143145794</v>
+        <v>124.116282560179</v>
       </c>
       <c r="K13" s="45" t="n">
         <f aca="false">J13*0.08205746*(273.15+C13)</f>
-        <v>2664.97340587574</v>
+        <v>2887.04752374217</v>
       </c>
       <c r="L13" s="45" t="n">
         <f aca="false">($D13/(1+(10^-E13)/$I13))*1/$K13</f>
-        <v>1.68169503910599E-006</v>
+        <v>1.36216891279106E-006</v>
       </c>
       <c r="M13" s="45" t="n">
         <f aca="false">1000*L13/F13*G13*86400</f>
-        <v>1.10914848380731</v>
+        <v>0.898407588283568</v>
       </c>
       <c r="N13" s="45" t="n">
         <f aca="false">M13*B13*H13/1000</f>
-        <v>33.8733946954751</v>
+        <v>27.4373677461802</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,7 +3501,7 @@
       </c>
       <c r="C14" s="44" t="n">
         <f aca="false">Model!C30</f>
-        <v>8.93</v>
+        <v>6.47</v>
       </c>
       <c r="D14" s="44" t="n">
         <f aca="false">Model!C$10</f>
@@ -3708,27 +3525,27 @@
       </c>
       <c r="I14" s="45" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C14+273.15))-0.039282*(C14+273.15))-(191.97-8451/(C14+273.15)-31.4335*LN(C14+273.15)+0.0152123*(C14+273.15)))</f>
-        <v>1.67939032488072E-010</v>
+        <v>1.37664421864316E-010</v>
       </c>
       <c r="J14" s="45" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C14))-(25.6767*LN(273.15+C14))+(0.035388*(273.15+C14))))</f>
-        <v>133.493920117638</v>
+        <v>152.182667995391</v>
       </c>
       <c r="K14" s="45" t="n">
         <f aca="false">J14*0.08205746*(273.15+C14)</f>
-        <v>3089.95284066438</v>
+        <v>3491.81715887017</v>
       </c>
       <c r="L14" s="45" t="n">
         <f aca="false">($D14/(1+(10^-E14)/$I14))*1/$K14</f>
-        <v>1.13943709007992E-006</v>
+        <v>8.26783988254463E-007</v>
       </c>
       <c r="M14" s="45" t="n">
         <f aca="false">1000*L14/F14*G14*86400</f>
-        <v>0.751506599869503</v>
+        <v>0.545298752558669</v>
       </c>
       <c r="N14" s="45" t="n">
         <f aca="false">M14*B14*H14/1000</f>
-        <v>23.7160452786818</v>
+        <v>17.2085380332465</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,13 +3569,13 @@
       <c r="M15" s="45"/>
       <c r="N15" s="46" t="n">
         <f aca="false">SUM(N3:N14)</f>
-        <v>355.767566107545</v>
+        <v>336.396907562713</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3767,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3777,17 +3594,17 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="40" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="50.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="12.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="40" width="11.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="40" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="40" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,8 +3695,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3888,7 +3705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3898,11 +3715,14 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,8 +3829,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/examples/04/NH3/Storage_NH3_model_ott.xlsx
+++ b/examples/04/NH3/Storage_NH3_model_ott.xlsx
@@ -10,11 +10,11 @@
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="License" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Lookup" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Warnings" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="ChangeLog" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Parameters" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Lookup" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Warnings" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="ChangeLog" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,9 +26,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
-  <si>
-    <t xml:space="preserve">Mass transfer model for ammonia loss from animal slurry storage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AMOSTO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mass transfer model for </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nia loss from animal slurry </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rage</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Inputs</t>
@@ -368,10 +446,25 @@
     <t xml:space="preserve">April</t>
   </si>
   <si>
+    <t xml:space="preserve">Latest version and more information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sashahafner/AMOSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paper:</t>
   </si>
   <si>
-    <t xml:space="preserve">May</t>
+    <t xml:space="preserve">Download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
   </si>
   <si>
     <t xml:space="preserve">Contact us: </t>
@@ -380,7 +473,7 @@
     <t xml:space="preserve">sgs@bce.au.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">June</t>
+    <t xml:space="preserve">August</t>
   </si>
   <si>
     <t xml:space="preserve">License:</t>
@@ -389,16 +482,10 @@
     <t xml:space="preserve">MIT</t>
   </si>
   <si>
-    <t xml:space="preserve">July</t>
+    <t xml:space="preserve">September</t>
   </si>
   <si>
     <t xml:space="preserve">Version:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
   </si>
   <si>
     <t xml:space="preserve">October</t>
@@ -631,18 +718,28 @@
   <si>
     <t xml:space="preserve">Fix cover factor, had used it as a *reduction*</t>
   </si>
+  <si>
+    <t xml:space="preserve">AMOSTO.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change file name, add AMOSTO to Model sheet, hiding this ChangeLog and other sheets except Model and License, add GitHub info to Model sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add download link, reformat notes a bit.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="D\-MMM\-YY"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -672,6 +769,20 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <name val="Century"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Century"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="12"/>
       <name val="Century"/>
       <family val="1"/>
@@ -735,13 +846,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF70AD47"/>
+      <color rgb="FF548235"/>
       <name val="Century"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Century"/>
@@ -983,11 +1109,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,15 +1130,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,11 +1146,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1032,7 +1158,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1052,15 +1178,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,11 +1198,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1092,19 +1218,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,7 +1238,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1120,27 +1246,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,7 +1290,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,35 +1298,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1207,7 +1341,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF0070C0"/>
       <rgbColor rgb="FFC5E0B4"/>
@@ -1262,6 +1396,7 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1274,20 +1409,35 @@
             <a:solidFill>
               <a:srgbClr val="9dcbf1"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1299,31 +1449,31 @@
                   <c:v>10.685008527463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.01447590384331</c:v>
+                  <c:v>7.01447590384332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.18328518744656</c:v>
+                  <c:v>7.18328518744658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.25846396142268</c:v>
+                  <c:v>8.2584639614227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.5054070972825</c:v>
+                  <c:v>17.5054070972826</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31.2798587990964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.3347292077466</c:v>
+                  <c:v>49.3347292077467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.5540136871234</c:v>
+                  <c:v>60.5540136871235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.8073272155876</c:v>
+                  <c:v>55.8073272155877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.1284321962747</c:v>
+                  <c:v>44.1284321962748</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>27.4373677461802</c:v>
@@ -1337,11 +1487,11 @@
         </c:ser>
         <c:gapWidth val="90"/>
         <c:overlap val="59"/>
-        <c:axId val="53741473"/>
-        <c:axId val="97323737"/>
+        <c:axId val="85006636"/>
+        <c:axId val="30795551"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53741473"/>
+        <c:axId val="85006636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1504,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1362,7 +1512,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1376,12 +1526,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1407,14 +1557,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97323737"/>
+        <c:crossAx val="30795551"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97323737"/>
+        <c:axId val="30795551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1588,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1445,7 +1596,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1459,7 +1610,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1487,8 +1638,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53741473"/>
+        <c:crossAx val="85006636"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1521,6 +1673,7 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1533,20 +1686,35 @@
             <a:solidFill>
               <a:srgbClr val="c5e0b4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1555,13 +1723,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.338583196890264</c:v>
+                  <c:v>0.338583196890265</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.243909658147793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.227621686654622</c:v>
+                  <c:v>0.227621686654623</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.270414668023009</c:v>
@@ -1585,10 +1753,10 @@
                   <c:v>1.39832791039593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.898407588283568</c:v>
+                  <c:v>0.89840758828357</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.545298752558669</c:v>
+                  <c:v>0.545298752558671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,11 +1764,11 @@
         </c:ser>
         <c:gapWidth val="90"/>
         <c:overlap val="59"/>
-        <c:axId val="90292695"/>
-        <c:axId val="35332270"/>
+        <c:axId val="6234574"/>
+        <c:axId val="93997437"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90292695"/>
+        <c:axId val="6234574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1781,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1621,7 +1789,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1635,12 +1803,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1666,14 +1834,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35332270"/>
+        <c:crossAx val="93997437"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35332270"/>
+        <c:axId val="93997437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1865,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1704,7 +1873,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1100" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1718,7 +1887,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1746,8 +1915,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90292695"/>
+        <c:crossAx val="6234574"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1786,9 +1956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1142280</xdr:colOff>
+      <xdr:colOff>1142640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1796,8 +1966,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6878880" y="1949760"/>
-        <a:ext cx="3867480" cy="2667240"/>
+        <a:off x="6980760" y="1859760"/>
+        <a:ext cx="3867840" cy="2657880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1816,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:colOff>406440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1826,8 +1996,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11081880" y="1941120"/>
-        <a:ext cx="3765240" cy="2684520"/>
+        <a:off x="11183400" y="1851120"/>
+        <a:ext cx="3766320" cy="2675160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1841,33 +2011,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +2102,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +2131,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +2153,7 @@
       </c>
       <c r="L7" s="22" t="n">
         <f aca="false">Calculations!N15</f>
-        <v>336.396907562713</v>
+        <v>336.396907562714</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -2002,7 +2173,7 @@
       </c>
       <c r="L8" s="26" t="n">
         <f aca="false">100*L7/L6</f>
-        <v>2.19286794799852</v>
+        <v>2.19286794799853</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -2023,7 +2194,7 @@
       <c r="O9" s="17"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2292,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2359,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
@@ -2209,7 +2380,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
@@ -2249,7 +2420,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="s">
         <v>32</v>
       </c>
@@ -2257,11 +2428,13 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="34"/>
       <c r="J22" s="13"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -2272,19 +2445,15 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="30" t="n">
         <v>6.6</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="F23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="15"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="J23" s="13"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -2295,17 +2464,17 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="30" t="n">
         <v>11.35</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>38</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="H24" s="15"/>
       <c r="J24" s="13"/>
@@ -2316,22 +2485,21 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="30" t="n">
         <v>14.73</v>
       </c>
       <c r="D25" s="15"/>
       <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="36" t="n">
-        <f aca="false">MAX(ChangeLog!A2:A1009)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="15"/>
       <c r="J25" s="13"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -2340,7 +2508,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="13" t="s">
         <v>42</v>
       </c>
@@ -2348,6 +2516,13 @@
         <v>16.4</v>
       </c>
       <c r="D26" s="15"/>
+      <c r="F26" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="15"/>
       <c r="J26" s="13"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -2356,14 +2531,22 @@
       <c r="O26" s="17"/>
       <c r="P26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="30" t="n">
         <v>16</v>
       </c>
       <c r="D27" s="15"/>
+      <c r="F27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="39" t="n">
+        <f aca="false">MAX(ChangeLog!A4:A1011)</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="25"/>
       <c r="J27" s="23"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -2372,70 +2555,44 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C28" s="30" t="n">
         <v>13.83</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="30" t="n">
         <v>10.32</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C30" s="20" t="n">
         <v>6.47</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection sheet="true" selectLockedCells="true"/>
-  <mergeCells count="16">
+  <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true"/>
+  <mergeCells count="18">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
@@ -2451,38 +2608,41 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H23"/>
     <mergeCell ref="K28:L28"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
       <formula1>Parameters!$A$3:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="list">
       <formula1>Parameters!$B$2:$C$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C16" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C16" type="list">
       <formula1>Parameters!$A$8:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="sgs@bce.au.dk"/>
+    <hyperlink ref="G22" r:id="rId1" display="https://github.com/sashahafner/AMOSTO"/>
+    <hyperlink ref="G24" r:id="rId2" display="Download"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2492,21 +2652,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="293.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>47</v>
+      <c r="A1" s="41" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2515,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2525,207 +2684,207 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="18.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="40" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="18.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="42" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="41"/>
+      <c r="B1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40" t="n">
+      <c r="B3" s="42" t="n">
         <v>118</v>
       </c>
-      <c r="C3" s="40" t="n">
+      <c r="C3" s="42" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="40" t="n">
+      <c r="A4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="42" t="n">
         <v>303</v>
       </c>
-      <c r="C4" s="40" t="n">
+      <c r="C4" s="42" t="n">
         <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="40" t="n">
+      <c r="A5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="42" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="40" t="n">
+      <c r="C5" s="42" t="n">
         <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="42" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" s="42" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="42" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" s="42" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C10" s="42" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="42" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="42" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" s="42" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="42" t="n">
+        <v>46</v>
+      </c>
+      <c r="C13" s="42" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="42" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="42" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="42" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" s="42" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="42" t="n">
         <v>53</v>
       </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="40" t="n">
-        <v>33</v>
-      </c>
-      <c r="C8" s="40" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="40" t="n">
-        <v>45</v>
-      </c>
-      <c r="C9" s="40" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="40" t="n">
-        <v>41</v>
-      </c>
-      <c r="C10" s="40" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="40" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" s="40" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="40" t="n">
-        <v>66</v>
-      </c>
-      <c r="C12" s="40" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>46</v>
-      </c>
-      <c r="C13" s="40" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="40" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" s="40" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="40" t="n">
-        <v>17</v>
-      </c>
-      <c r="C15" s="40" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="40" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" s="40" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C17" s="40" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="40" t="n">
-        <v>53</v>
-      </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="42" t="n">
         <v>0.53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="42" t="n">
         <v>100</v>
       </c>
-      <c r="C19" s="40" t="n">
+      <c r="C19" s="42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="42" t="n">
         <v>100</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,7 +2895,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2745,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2755,47 +2914,46 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Model!C6</f>
         <v>Cattle</v>
       </c>
-      <c r="C2" s="42" t="n">
+      <c r="C2" s="44" t="n">
         <f aca="false">MATCH(B2,Parameters!A3:A5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Model!C14</f>
         <v>Tank</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="44" t="n">
         <f aca="false">MATCH(B3,Parameters!B2:C2)</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2804,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2814,768 +2972,768 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="40" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="40" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="40" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="40" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="40" width="16.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="40" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="42" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="42" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="42" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="42" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="42" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="42" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="42" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="42" width="16.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="42" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="2" s="43" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="43" t="s">
+    <row r="2" s="45" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="45" t="s">
         <v>79</v>
       </c>
+      <c r="L2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="n">
+      <c r="B3" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="46" t="n">
         <f aca="false">Model!C19</f>
         <v>2.9</v>
       </c>
-      <c r="D3" s="44" t="n">
+      <c r="D3" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F3" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G3" s="44" t="n">
+      <c r="G3" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H3" s="44" t="n">
+      <c r="H3" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I3" s="45" t="n">
+      <c r="I3" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C3+273.15))-0.039282*(C3+273.15))-(191.97-8451/(C3+273.15)-31.4335*LN(C3+273.15)+0.0152123*(C3+273.15)))</f>
         <v>1.02532591947923E-010</v>
       </c>
-      <c r="J3" s="45" t="n">
+      <c r="J3" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C3))-(25.6767*LN(273.15+C3))+(0.035388*(273.15+C3))))</f>
-        <v>184.972595265187</v>
-      </c>
-      <c r="K3" s="45" t="n">
+        <v>184.972595265186</v>
+      </c>
+      <c r="K3" s="47" t="n">
         <f aca="false">J3*0.08205746*(273.15+C3)</f>
-        <v>4189.99216809797</v>
-      </c>
-      <c r="L3" s="45" t="n">
+        <v>4189.99216809795</v>
+      </c>
+      <c r="L3" s="47" t="n">
         <f aca="false">($D3/(1+(10^-E3)/$I3))*1/$K3</f>
-        <v>5.13361097136859E-007</v>
-      </c>
-      <c r="M3" s="45" t="n">
+        <v>5.13361097136861E-007</v>
+      </c>
+      <c r="M3" s="47" t="n">
         <f aca="false">1000*L3/F3*G3*86400</f>
-        <v>0.338583196890264</v>
-      </c>
-      <c r="N3" s="45" t="n">
+        <v>0.338583196890265</v>
+      </c>
+      <c r="N3" s="47" t="n">
         <f aca="false">M3*B3*H3/1000</f>
         <v>10.685008527463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="n">
+      <c r="B4" s="42" t="n">
         <v>28.25</v>
       </c>
-      <c r="C4" s="44" t="n">
+      <c r="C4" s="46" t="n">
         <f aca="false">Model!C20</f>
         <v>0.5</v>
       </c>
-      <c r="D4" s="44" t="n">
+      <c r="D4" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F4" s="44" t="n">
+      <c r="F4" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G4" s="44" t="n">
+      <c r="G4" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H4" s="44" t="n">
+      <c r="H4" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I4" s="45" t="n">
+      <c r="I4" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C4+273.15))-0.039282*(C4+273.15))-(191.97-8451/(C4+273.15)-31.4335*LN(C4+273.15)+0.0152123*(C4+273.15)))</f>
         <v>8.37559248324732E-011</v>
       </c>
-      <c r="J4" s="45" t="n">
+      <c r="J4" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C4))-(25.6767*LN(273.15+C4))+(0.035388*(273.15+C4))))</f>
         <v>211.627043718995</v>
       </c>
-      <c r="K4" s="45" t="n">
+      <c r="K4" s="47" t="n">
         <f aca="false">J4*0.08205746*(273.15+C4)</f>
-        <v>4752.09033073357</v>
-      </c>
-      <c r="L4" s="45" t="n">
+        <v>4752.09033073356</v>
+      </c>
+      <c r="L4" s="47" t="n">
         <f aca="false">($D4/(1+(10^-E4)/$I4))*1/$K4</f>
-        <v>3.69816727052788E-007</v>
-      </c>
-      <c r="M4" s="45" t="n">
+        <v>3.69816727052789E-007</v>
+      </c>
+      <c r="M4" s="47" t="n">
         <f aca="false">1000*L4/F4*G4*86400</f>
         <v>0.243909658147793</v>
       </c>
-      <c r="N4" s="45" t="n">
+      <c r="N4" s="47" t="n">
         <f aca="false">M4*B4*H4/1000</f>
-        <v>7.01447590384331</v>
+        <v>7.01447590384332</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
+      <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="n">
+      <c r="B5" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="46" t="n">
         <f aca="false">Model!C21</f>
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="n">
+      <c r="D5" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G5" s="44" t="n">
+      <c r="G5" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H5" s="44" t="n">
+      <c r="H5" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I5" s="45" t="n">
+      <c r="I5" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C5+273.15))-0.039282*(C5+273.15))-(191.97-8451/(C5+273.15)-31.4335*LN(C5+273.15)+0.0152123*(C5+273.15)))</f>
         <v>8.02650303591075E-011</v>
       </c>
-      <c r="J5" s="45" t="n">
+      <c r="J5" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C5))-(25.6767*LN(273.15+C5))+(0.035388*(273.15+C5))))</f>
         <v>217.724227041309</v>
       </c>
-      <c r="K5" s="45" t="n">
+      <c r="K5" s="47" t="n">
         <f aca="false">J5*0.08205746*(273.15+C5)</f>
-        <v>4880.06977960989</v>
-      </c>
-      <c r="L5" s="45" t="n">
+        <v>4880.06977960988</v>
+      </c>
+      <c r="L5" s="47" t="n">
         <f aca="false">($D5/(1+(10^-E5)/$I5))*1/$K5</f>
-        <v>3.45120844349022E-007</v>
-      </c>
-      <c r="M5" s="45" t="n">
+        <v>3.45120844349023E-007</v>
+      </c>
+      <c r="M5" s="47" t="n">
         <f aca="false">1000*L5/F5*G5*86400</f>
-        <v>0.227621686654622</v>
-      </c>
-      <c r="N5" s="45" t="n">
+        <v>0.227621686654623</v>
+      </c>
+      <c r="N5" s="47" t="n">
         <f aca="false">M5*B5*H5/1000</f>
-        <v>7.18328518744656</v>
+        <v>7.18328518744658</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
+      <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="n">
+      <c r="B6" s="42" t="n">
         <v>30</v>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="46" t="n">
         <f aca="false">Model!C22</f>
         <v>1.25</v>
       </c>
-      <c r="D6" s="44" t="n">
+      <c r="D6" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="n">
+      <c r="F6" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H6" s="44" t="n">
+      <c r="H6" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C6+273.15))-0.039282*(C6+273.15))-(191.97-8451/(C6+273.15)-31.4335*LN(C6+273.15)+0.0152123*(C6+273.15)))</f>
         <v>8.92539165076675E-011</v>
       </c>
-      <c r="J6" s="45" t="n">
+      <c r="J6" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C6))-(25.6767*LN(273.15+C6))+(0.035388*(273.15+C6))))</f>
-        <v>202.847261933112</v>
-      </c>
-      <c r="K6" s="45" t="n">
+        <v>202.847261933111</v>
+      </c>
+      <c r="K6" s="47" t="n">
         <f aca="false">J6*0.08205746*(273.15+C6)</f>
         <v>4567.42396895179</v>
       </c>
-      <c r="L6" s="45" t="n">
+      <c r="L6" s="47" t="n">
         <f aca="false">($D6/(1+(10^-E6)/$I6))*1/$K6</f>
-        <v>4.10003721192293E-007</v>
-      </c>
-      <c r="M6" s="45" t="n">
+        <v>4.10003721192294E-007</v>
+      </c>
+      <c r="M6" s="47" t="n">
         <f aca="false">1000*L6/F6*G6*86400</f>
         <v>0.270414668023009</v>
       </c>
-      <c r="N6" s="45" t="n">
+      <c r="N6" s="47" t="n">
         <f aca="false">M6*B6*H6/1000</f>
-        <v>8.25846396142268</v>
+        <v>8.2584639614227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="n">
+      <c r="B7" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="46" t="n">
         <f aca="false">Model!C23</f>
         <v>6.6</v>
       </c>
-      <c r="D7" s="44" t="n">
+      <c r="D7" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F7" s="44" t="n">
+      <c r="F7" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G7" s="44" t="n">
+      <c r="G7" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="44" t="n">
+      <c r="H7" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I7" s="45" t="n">
+      <c r="I7" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C7+273.15))-0.039282*(C7+273.15))-(191.97-8451/(C7+273.15)-31.4335*LN(C7+273.15)+0.0152123*(C7+273.15)))</f>
         <v>1.39130113450962E-010</v>
       </c>
-      <c r="J7" s="45" t="n">
+      <c r="J7" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C7))-(25.6767*LN(273.15+C7))+(0.035388*(273.15+C7))))</f>
         <v>151.122162072427</v>
       </c>
-      <c r="K7" s="45" t="n">
+      <c r="K7" s="47" t="n">
         <f aca="false">J7*0.08205746*(273.15+C7)</f>
-        <v>3469.09604023173</v>
-      </c>
-      <c r="L7" s="45" t="n">
+        <v>3469.09604023172</v>
+      </c>
+      <c r="L7" s="47" t="n">
         <f aca="false">($D7/(1+(10^-E7)/$I7))*1/$K7</f>
-        <v>8.41047058614009E-007</v>
-      </c>
-      <c r="M7" s="45" t="n">
+        <v>8.4104705861401E-007</v>
+      </c>
+      <c r="M7" s="47" t="n">
         <f aca="false">1000*L7/F7*G7*86400</f>
         <v>0.554705846291988</v>
       </c>
-      <c r="N7" s="45" t="n">
+      <c r="N7" s="47" t="n">
         <f aca="false">M7*B7*H7/1000</f>
-        <v>17.5054070972825</v>
+        <v>17.5054070972826</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
+      <c r="A8" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="42" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="44" t="n">
+      <c r="C8" s="46" t="n">
         <f aca="false">Model!C24</f>
         <v>11.35</v>
       </c>
-      <c r="D8" s="44" t="n">
+      <c r="D8" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F8" s="44" t="n">
+      <c r="F8" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G8" s="44" t="n">
+      <c r="G8" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H8" s="44" t="n">
+      <c r="H8" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I8" s="45" t="n">
+      <c r="I8" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C8+273.15))-0.039282*(C8+273.15))-(191.97-8451/(C8+273.15)-31.4335*LN(C8+273.15)+0.0152123*(C8+273.15)))</f>
         <v>2.0353692916467E-010</v>
       </c>
-      <c r="J8" s="45" t="n">
+      <c r="J8" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C8))-(25.6767*LN(273.15+C8))+(0.035388*(273.15+C8))))</f>
         <v>117.659179764241</v>
       </c>
-      <c r="K8" s="45" t="n">
+      <c r="K8" s="47" t="n">
         <f aca="false">J8*0.08205746*(273.15+C8)</f>
         <v>2746.79442286549</v>
       </c>
-      <c r="L8" s="45" t="n">
+      <c r="L8" s="47" t="n">
         <f aca="false">($D8/(1+(10^-E8)/$I8))*1/$K8</f>
         <v>1.55293509373015E-006</v>
       </c>
-      <c r="M8" s="45" t="n">
+      <c r="M8" s="47" t="n">
         <f aca="false">1000*L8/F8*G8*86400</f>
         <v>1.02422589388004</v>
       </c>
-      <c r="N8" s="45" t="n">
+      <c r="N8" s="47" t="n">
         <f aca="false">M8*B8*H8/1000</f>
         <v>31.2798587990964</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="n">
+      <c r="B9" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="46" t="n">
         <f aca="false">Model!C25</f>
         <v>14.73</v>
       </c>
-      <c r="D9" s="44" t="n">
+      <c r="D9" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F9" s="44" t="n">
+      <c r="F9" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G9" s="44" t="n">
+      <c r="G9" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H9" s="44" t="n">
+      <c r="H9" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I9" s="45" t="n">
+      <c r="I9" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C9+273.15))-0.039282*(C9+273.15))-(191.97-8451/(C9+273.15)-31.4335*LN(C9+273.15)+0.0152123*(C9+273.15)))</f>
         <v>2.64805097214042E-010</v>
       </c>
-      <c r="J9" s="45" t="n">
+      <c r="J9" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C9))-(25.6767*LN(273.15+C9))+(0.035388*(273.15+C9))))</f>
-        <v>99.0527933717702</v>
-      </c>
-      <c r="K9" s="45" t="n">
+        <v>99.0527933717699</v>
+      </c>
+      <c r="K9" s="47" t="n">
         <f aca="false">J9*0.08205746*(273.15+C9)</f>
-        <v>2339.89457896218</v>
-      </c>
-      <c r="L9" s="45" t="n">
+        <v>2339.89457896217</v>
+      </c>
+      <c r="L9" s="47" t="n">
         <f aca="false">($D9/(1+(10^-E9)/$I9))*1/$K9</f>
-        <v>2.37028642962179E-006</v>
-      </c>
-      <c r="M9" s="45" t="n">
+        <v>2.3702864296218E-006</v>
+      </c>
+      <c r="M9" s="47" t="n">
         <f aca="false">1000*L9/F9*G9*86400</f>
         <v>1.56330341617804</v>
       </c>
-      <c r="N9" s="45" t="n">
+      <c r="N9" s="47" t="n">
         <f aca="false">M9*B9*H9/1000</f>
-        <v>49.3347292077466</v>
+        <v>49.3347292077467</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
+      <c r="A10" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C10" s="44" t="n">
+      <c r="C10" s="46" t="n">
         <f aca="false">Model!C26</f>
         <v>16.4</v>
       </c>
-      <c r="D10" s="44" t="n">
+      <c r="D10" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E10" s="44" t="n">
+      <c r="E10" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F10" s="44" t="n">
+      <c r="F10" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H10" s="44" t="n">
+      <c r="H10" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I10" s="45" t="n">
+      <c r="I10" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C10+273.15))-0.039282*(C10+273.15))-(191.97-8451/(C10+273.15)-31.4335*LN(C10+273.15)+0.0152123*(C10+273.15)))</f>
         <v>3.00891221390967E-010</v>
       </c>
-      <c r="J10" s="45" t="n">
+      <c r="J10" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C10))-(25.6767*LN(273.15+C10))+(0.035388*(273.15+C10))))</f>
-        <v>91.1362941495528</v>
-      </c>
-      <c r="K10" s="45" t="n">
+        <v>91.1362941495526</v>
+      </c>
+      <c r="K10" s="47" t="n">
         <f aca="false">J10*0.08205746*(273.15+C10)</f>
         <v>2165.37442963502</v>
       </c>
-      <c r="L10" s="45" t="n">
+      <c r="L10" s="47" t="n">
         <f aca="false">($D10/(1+(10^-E10)/$I10))*1/$K10</f>
-        <v>2.90931680798977E-006</v>
-      </c>
-      <c r="M10" s="45" t="n">
+        <v>2.90931680798978E-006</v>
+      </c>
+      <c r="M10" s="47" t="n">
         <f aca="false">1000*L10/F10*G10*86400</f>
         <v>1.91881658175814</v>
       </c>
-      <c r="N10" s="45" t="n">
+      <c r="N10" s="47" t="n">
         <f aca="false">M10*B10*H10/1000</f>
-        <v>60.5540136871234</v>
+        <v>60.5540136871235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="42" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="46" t="n">
         <f aca="false">Model!C27</f>
         <v>16</v>
       </c>
-      <c r="D11" s="44" t="n">
+      <c r="D11" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F11" s="44" t="n">
+      <c r="F11" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G11" s="44" t="n">
+      <c r="G11" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H11" s="44" t="n">
+      <c r="H11" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I11" s="45" t="n">
+      <c r="I11" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C11+273.15))-0.039282*(C11+273.15))-(191.97-8451/(C11+273.15)-31.4335*LN(C11+273.15)+0.0152123*(C11+273.15)))</f>
         <v>2.9186268105793E-010</v>
       </c>
-      <c r="J11" s="45" t="n">
+      <c r="J11" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C11))-(25.6767*LN(273.15+C11))+(0.035388*(273.15+C11))))</f>
-        <v>92.9632192947344</v>
-      </c>
-      <c r="K11" s="45" t="n">
+        <v>92.9632192947343</v>
+      </c>
+      <c r="K11" s="47" t="n">
         <f aca="false">J11*0.08205746*(273.15+C11)</f>
         <v>2205.73036133574</v>
       </c>
-      <c r="L11" s="45" t="n">
+      <c r="L11" s="47" t="n">
         <f aca="false">($D11/(1+(10^-E11)/$I11))*1/$K11</f>
-        <v>2.77063772816236E-006</v>
-      </c>
-      <c r="M11" s="45" t="n">
+        <v>2.77063772816237E-006</v>
+      </c>
+      <c r="M11" s="47" t="n">
         <f aca="false">1000*L11/F11*G11*86400</f>
         <v>1.82735190620785</v>
       </c>
-      <c r="N11" s="45" t="n">
+      <c r="N11" s="47" t="n">
         <f aca="false">M11*B11*H11/1000</f>
-        <v>55.8073272155876</v>
+        <v>55.8073272155877</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+      <c r="A12" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="46" t="n">
         <f aca="false">Model!C28</f>
         <v>13.83</v>
       </c>
-      <c r="D12" s="44" t="n">
+      <c r="D12" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E12" s="44" t="n">
+      <c r="E12" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F12" s="44" t="n">
+      <c r="F12" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G12" s="44" t="n">
+      <c r="G12" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H12" s="44" t="n">
+      <c r="H12" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I12" s="45" t="n">
+      <c r="I12" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C12+273.15))-0.039282*(C12+273.15))-(191.97-8451/(C12+273.15)-31.4335*LN(C12+273.15)+0.0152123*(C12+273.15)))</f>
         <v>2.47034514620702E-010</v>
       </c>
-      <c r="J12" s="45" t="n">
+      <c r="J12" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C12))-(25.6767*LN(273.15+C12))+(0.035388*(273.15+C12))))</f>
-        <v>103.649954409715</v>
-      </c>
-      <c r="K12" s="45" t="n">
+        <v>103.649954409714</v>
+      </c>
+      <c r="K12" s="47" t="n">
         <f aca="false">J12*0.08205746*(273.15+C12)</f>
         <v>2440.83721550963</v>
       </c>
-      <c r="L12" s="45" t="n">
+      <c r="L12" s="47" t="n">
         <f aca="false">($D12/(1+(10^-E12)/$I12))*1/$K12</f>
         <v>2.12014995673457E-006</v>
       </c>
-      <c r="M12" s="45" t="n">
+      <c r="M12" s="47" t="n">
         <f aca="false">1000*L12/F12*G12*86400</f>
         <v>1.39832791039593</v>
       </c>
-      <c r="N12" s="45" t="n">
+      <c r="N12" s="47" t="n">
         <f aca="false">M12*B12*H12/1000</f>
-        <v>44.1284321962747</v>
+        <v>44.1284321962748</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
+      <c r="A13" s="42" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="n">
+      <c r="B13" s="42" t="n">
         <v>30</v>
       </c>
-      <c r="C13" s="44" t="n">
+      <c r="C13" s="46" t="n">
         <f aca="false">Model!C29</f>
         <v>10.32</v>
       </c>
-      <c r="D13" s="44" t="n">
+      <c r="D13" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F13" s="44" t="n">
+      <c r="F13" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G13" s="44" t="n">
+      <c r="G13" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H13" s="44" t="n">
+      <c r="H13" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I13" s="45" t="n">
+      <c r="I13" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C13+273.15))-0.039282*(C13+273.15))-(191.97-8451/(C13+273.15)-31.4335*LN(C13+273.15)+0.0152123*(C13+273.15)))</f>
         <v>1.87620229846742E-010</v>
       </c>
-      <c r="J13" s="45" t="n">
+      <c r="J13" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C13))-(25.6767*LN(273.15+C13))+(0.035388*(273.15+C13))))</f>
         <v>124.116282560179</v>
       </c>
-      <c r="K13" s="45" t="n">
+      <c r="K13" s="47" t="n">
         <f aca="false">J13*0.08205746*(273.15+C13)</f>
         <v>2887.04752374217</v>
       </c>
-      <c r="L13" s="45" t="n">
+      <c r="L13" s="47" t="n">
         <f aca="false">($D13/(1+(10^-E13)/$I13))*1/$K13</f>
         <v>1.36216891279106E-006</v>
       </c>
-      <c r="M13" s="45" t="n">
+      <c r="M13" s="47" t="n">
         <f aca="false">1000*L13/F13*G13*86400</f>
-        <v>0.898407588283568</v>
-      </c>
-      <c r="N13" s="45" t="n">
+        <v>0.89840758828357</v>
+      </c>
+      <c r="N13" s="47" t="n">
         <f aca="false">M13*B13*H13/1000</f>
         <v>27.4373677461802</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="42" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="n">
+      <c r="B14" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C14" s="44" t="n">
+      <c r="C14" s="46" t="n">
         <f aca="false">Model!C30</f>
         <v>6.47</v>
       </c>
-      <c r="D14" s="44" t="n">
+      <c r="D14" s="46" t="n">
         <f aca="false">Model!C$10</f>
         <v>2.1</v>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="46" t="n">
         <f aca="false">Model!C$11</f>
         <v>7</v>
       </c>
-      <c r="F14" s="44" t="n">
+      <c r="F14" s="46" t="n">
         <f aca="false">Model!G$6</f>
         <v>131</v>
       </c>
-      <c r="G14" s="44" t="n">
+      <c r="G14" s="46" t="n">
         <f aca="false">Model!G$7</f>
         <v>1</v>
       </c>
-      <c r="H14" s="44" t="n">
+      <c r="H14" s="46" t="n">
         <f aca="false">Model!C$15</f>
         <v>1018</v>
       </c>
-      <c r="I14" s="45" t="n">
+      <c r="I14" s="47" t="n">
         <f aca="false">EXP((14.01708-(10294.83/(C14+273.15))-0.039282*(C14+273.15))-(191.97-8451/(C14+273.15)-31.4335*LN(C14+273.15)+0.0152123*(C14+273.15)))</f>
         <v>1.37664421864316E-010</v>
       </c>
-      <c r="J14" s="45" t="n">
+      <c r="J14" s="47" t="n">
         <f aca="false">EXP(-(160.559-(8621.06/(273.15+C14))-(25.6767*LN(273.15+C14))+(0.035388*(273.15+C14))))</f>
         <v>152.182667995391</v>
       </c>
-      <c r="K14" s="45" t="n">
+      <c r="K14" s="47" t="n">
         <f aca="false">J14*0.08205746*(273.15+C14)</f>
-        <v>3491.81715887017</v>
-      </c>
-      <c r="L14" s="45" t="n">
+        <v>3491.81715887016</v>
+      </c>
+      <c r="L14" s="47" t="n">
         <f aca="false">($D14/(1+(10^-E14)/$I14))*1/$K14</f>
-        <v>8.26783988254463E-007</v>
-      </c>
-      <c r="M14" s="45" t="n">
+        <v>8.26783988254466E-007</v>
+      </c>
+      <c r="M14" s="47" t="n">
         <f aca="false">1000*L14/F14*G14*86400</f>
-        <v>0.545298752558669</v>
-      </c>
-      <c r="N14" s="45" t="n">
+        <v>0.545298752558671</v>
+      </c>
+      <c r="N14" s="47" t="n">
         <f aca="false">M14*B14*H14/1000</f>
         <v>17.2085380332465</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="46" t="n">
+      <c r="A15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="48" t="n">
         <f aca="false">SUM(B3:B14)</f>
         <v>365.25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46" t="n">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48" t="n">
         <f aca="false">SUM(N3:N14)</f>
-        <v>336.396907562713</v>
+        <v>336.396907562714</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3584,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3594,109 +3752,109 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="40" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="40" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="40" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="42" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="50.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="42" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="42" width="12.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="42" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="42" width="11.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="42" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>87</v>
       </c>
+      <c r="G1" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="45" t="n">
+      <c r="A2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="47" t="n">
         <f aca="false">IF(LEN(C2)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="str">
+      <c r="C2" s="47" t="str">
         <f aca="false">IF(I2&gt;H2,CONCATENATE("Check inputs. Values imply a long storage period of &gt; ",ROUND(I2,0)," days."),"")</f>
         <v/>
       </c>
-      <c r="D2" s="45" t="str">
+      <c r="D2" s="47" t="str">
         <f aca="false">IF(LEN(C2)&gt;1,CONCATENATE(B2,". ",C2),"")</f>
         <v/>
       </c>
-      <c r="G2" s="40" t="n">
+      <c r="G2" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="40" t="n">
+      <c r="H2" s="42" t="n">
         <v>365</v>
       </c>
-      <c r="I2" s="45" t="n">
+      <c r="I2" s="47" t="n">
         <f aca="false">Model!C15*Warnings!G2/Model!C7</f>
         <v>50.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="45" t="n">
+      <c r="A3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="47" t="n">
         <f aca="false">IF(LEN(C3)&gt;1,B2+1,B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="47" t="str">
         <f aca="false">IF(Model!L8&gt;Warnings!G5,CONCATENATE("Model assumes constant emission rate and is less accurate for high losses. Calculated loss is ",ROUND(Model!L8,0),"% of TAN flow."),"")</f>
         <v/>
       </c>
-      <c r="D3" s="45" t="str">
+      <c r="D3" s="47" t="str">
         <f aca="false">IF(LEN(C3)&gt;1,CONCATENATE(B3,". ",C3),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="str">
+      <c r="A4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="str">
         <f aca="false">CONCATENATE(D2, " ", D3)</f>
         <v> </v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>91</v>
+      <c r="G4" s="42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="40" t="n">
+      <c r="G5" s="42" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3705,132 +3863,163 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="50" t="n">
         <v>44583</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="B3" s="48" t="n">
+      <c r="B3" s="50" t="n">
         <v>44586</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="B4" s="48" t="n">
+      <c r="B4" s="50" t="n">
         <v>44586</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="B5" s="48" t="n">
+      <c r="B5" s="50" t="n">
         <v>44586</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="B6" s="48" t="n">
+      <c r="B6" s="50" t="n">
         <v>44587</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="50" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="50" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
